--- a/Requisitos projecto 1.xlsx
+++ b/Requisitos projecto 1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joolu\OneDrive\Ambiente de Trabalho\Faculdade\Programacão Avançada em Java\Projetos\1_Projeto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joolu\OneDrive\Ambiente de Trabalho\Faculdade\Programacão Avançada em Java\Projetos\1_Projeto\scrum_paj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A19FA0-6397-48D0-ADAB-2AA7E9306883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338D95ED-D57A-4B06-B82D-0B846BDE685F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
   <si>
     <t>Catergoria</t>
   </si>
@@ -93,9 +93,6 @@
     </r>
   </si>
   <si>
-    <t>Todos</t>
-  </si>
-  <si>
     <t>Incluir campos de input para permitir a inserção dos detalhes das tarefas (título e descrição) e um botão para guardar</t>
   </si>
   <si>
@@ -103,15 +100,6 @@
   </si>
   <si>
     <t>Botão para eliminar uma tareda</t>
-  </si>
-  <si>
-    <t>Incluir menu no header para aceder à página de Retrospetiva</t>
-  </si>
-  <si>
-    <t>Grupo de 3 alunos</t>
-  </si>
-  <si>
-    <t>Incluir campos de input para preencher os detalhes do momento de retrospetiva (data, menbros presentes, coméntários)</t>
   </si>
   <si>
     <t>Interface Funcional - Frontend</t>
@@ -222,9 +210,6 @@
     <t>Actualizar o nome do utilizador visível no cabeçalho</t>
   </si>
   <si>
-    <t>Submissão do forumlário de retrospetiva com todos os campos atrvés de um botão em Javascript</t>
-  </si>
-  <si>
     <t>Persistência - Frontend</t>
   </si>
   <si>
@@ -327,6 +312,9 @@
   </si>
   <si>
     <t>Uma funcionalidade extra que involve HTML + Javascript e/ou CSS + Javascript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">os dois </t>
   </si>
 </sst>
 </file>
@@ -793,17 +781,18 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="20.77734375" customWidth="1"/>
     <col min="2" max="2" width="52.33203125" customWidth="1"/>
-    <col min="3" max="7" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.21875" customWidth="1"/>
+    <col min="4" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -817,7 +806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="39.6">
+    <row r="2" spans="1:3" ht="27" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -825,173 +814,116 @@
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="26.4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="27" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" ht="27" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3" ht="27" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3" ht="27" customHeight="1">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="26.4">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:3" ht="27" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="39.6">
-      <c r="A7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:3" ht="27" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="26.4">
-      <c r="A8" s="6" t="s">
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" ht="27" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" ht="27" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="26.4">
-      <c r="A9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" ht="27" customHeight="1">
+      <c r="A11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="26.4">
-      <c r="A10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="B11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="26.4">
-      <c r="A11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" ht="27" customHeight="1">
+      <c r="A12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="26.4">
-      <c r="A12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="7" t="s">
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" ht="27" customHeight="1">
+      <c r="A13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="26.4">
-      <c r="A13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="8" t="s">
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" ht="27" customHeight="1">
+      <c r="A14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="26.4">
-      <c r="A16" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="26.4">
-      <c r="A17" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="C14" s="5"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" gridLines="1"/>
@@ -1019,7 +951,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -1030,7 +962,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1">
@@ -1038,7 +970,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1">
@@ -1046,7 +978,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1">
@@ -1054,7 +986,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1">
@@ -1062,7 +994,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1">
@@ -1070,111 +1002,111 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1">
       <c r="A17" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
       <c r="A18" s="10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1">
       <c r="A20" s="15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1"/>

--- a/Requisitos projecto 1.xlsx
+++ b/Requisitos projecto 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joolu\OneDrive\Ambiente de Trabalho\Faculdade\Programacão Avançada em Java\Projetos\1_Projeto\scrum_paj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338D95ED-D57A-4B06-B82D-0B846BDE685F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A17AA82-7B90-4BA3-A4EC-483AE196A00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
   <si>
     <t>Catergoria</t>
   </si>
@@ -314,7 +314,10 @@
     <t>Uma funcionalidade extra que involve HTML + Javascript e/ou CSS + Javascript</t>
   </si>
   <si>
-    <t xml:space="preserve">os dois </t>
+    <t>João Luís</t>
+  </si>
+  <si>
+    <t xml:space="preserve">João Morais </t>
   </si>
 </sst>
 </file>
@@ -784,7 +787,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2"/>
@@ -813,9 +816,7 @@
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" ht="27" customHeight="1">
       <c r="A3" s="3" t="s">
@@ -842,7 +843,9 @@
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="27" customHeight="1">
       <c r="A6" s="6" t="s">
@@ -869,7 +872,9 @@
       <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="27" customHeight="1">
       <c r="A9" s="6" t="s">
@@ -878,7 +883,9 @@
       <c r="B9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="27" customHeight="1">
       <c r="A10" s="6" t="s">
@@ -896,7 +903,9 @@
       <c r="B11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="27" customHeight="1">
       <c r="A12" s="8" t="s">
@@ -905,7 +914,9 @@
       <c r="B12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="27" customHeight="1">
       <c r="A13" s="10" t="s">

--- a/Requisitos projecto 1.xlsx
+++ b/Requisitos projecto 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joolu\OneDrive\Ambiente de Trabalho\Faculdade\Programacão Avançada em Java\Projetos\1_Projeto\scrum_paj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A17AA82-7B90-4BA3-A4EC-483AE196A00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550444C6-C60E-498D-8089-112C04617C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="40">
   <si>
     <t>Catergoria</t>
   </si>
@@ -816,7 +816,9 @@
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="27" customHeight="1">
       <c r="A3" s="3" t="s">
@@ -825,7 +827,9 @@
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="27" customHeight="1">
       <c r="A4" s="3" t="s">
@@ -834,7 +838,9 @@
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="27" customHeight="1">
       <c r="A5" s="3" t="s">
@@ -854,7 +860,9 @@
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="27" customHeight="1">
       <c r="A7" s="6" t="s">
@@ -863,7 +871,9 @@
       <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="27" customHeight="1">
       <c r="A8" s="6" t="s">
@@ -894,7 +904,9 @@
       <c r="B10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="27" customHeight="1">
       <c r="A11" s="8" t="s">
@@ -925,7 +937,9 @@
       <c r="B13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="27" customHeight="1">
       <c r="A14" s="12" t="s">
@@ -934,7 +948,9 @@
       <c r="B14" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" gridLines="1"/>
